--- a/Responses.xlsx
+++ b/Responses.xlsx
@@ -403,17 +403,17 @@
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" customWidth="1" width="16"/>
-    <col min="2" max="2" customWidth="1" width="33"/>
+    <col min="1" max="1" customWidth="1" width="25"/>
+    <col min="2" max="2" customWidth="1" width="43"/>
     <col min="3" max="3" customWidth="1" width="64"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>How are you?</v>
+        <v>ggtgtgt are dfjsdfyou?</v>
       </c>
       <c r="B1" t="str">
-        <v xml:space="preserve">Describe yourself in 3 words: </v>
+        <v xml:space="preserve">sdjfsjdfjjdfjdfjdh yourself in 3 words: </v>
       </c>
       <c r="C1" t="str">
         <v xml:space="preserve">Choose multiple: </v>
